--- a/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/1000VECES/gaussian/resultados.xlsx
+++ b/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/1000VECES/gaussian/resultados.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Image Name</t>
   </si>
@@ -53,16 +53,22 @@
     <t>[(8, 8)]</t>
   </si>
   <si>
+    <t>[(4, 4), (2, 64)]</t>
+  </si>
+  <si>
+    <t>[(2, 64), (1, 128)]</t>
+  </si>
+  <si>
     <t>[(4, 32)]</t>
   </si>
   <si>
+    <t>[(8, 16)]</t>
+  </si>
+  <si>
     <t>[(1, 128)]</t>
   </si>
   <si>
     <t>[(2, 64)]</t>
-  </si>
-  <si>
-    <t>[(8, 16)]</t>
   </si>
 </sst>
 </file>
@@ -527,37 +533,37 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>7.997512817382812E-06</v>
+        <v>9.999513626098633E-06</v>
       </c>
       <c r="C4" s="1">
-        <v>4.998445510864258E-06</v>
+        <v>6.997346878051758E-06</v>
       </c>
       <c r="D4" s="1">
-        <v>5.000114440917969E-06</v>
+        <v>7.998466491699219E-06</v>
       </c>
       <c r="E4" s="1">
-        <v>4.997730255126953E-06</v>
+        <v>5.999088287353515E-06</v>
       </c>
       <c r="F4" s="1">
-        <v>5.998849868774414E-06</v>
+        <v>8.999347686767579E-06</v>
       </c>
       <c r="G4" s="1">
-        <v>4.999876022338867E-06</v>
+        <v>5.99980354309082E-06</v>
       </c>
       <c r="H4" s="1">
-        <v>5.999088287353515E-06</v>
+        <v>6.998777389526367E-06</v>
       </c>
       <c r="I4" s="1">
-        <v>5.997896194458008E-06</v>
+        <v>5.999565124511719E-06</v>
       </c>
       <c r="J4" s="1">
-        <v>5.99980354309082E-06</v>
+        <v>6.998062133789063E-06</v>
       </c>
       <c r="K4" s="1">
-        <v>4.998922348022461E-06</v>
+        <v>5.999565124511719E-06</v>
       </c>
       <c r="L4" s="1">
-        <v>5.997419357299805E-06</v>
+        <v>8.997440338134766E-06</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -565,43 +571,43 @@
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>1.699972152709961E-05</v>
+        <v>1.699900627136231E-05</v>
       </c>
       <c r="C5" s="1">
-        <v>7.998466491699219E-06</v>
+        <v>1.199793815612793E-05</v>
       </c>
       <c r="D5" s="1">
-        <v>4.997968673706055E-06</v>
+        <v>5.998849868774414E-06</v>
       </c>
       <c r="E5" s="1">
-        <v>5.997657775878906E-06</v>
+        <v>8.998870849609375E-06</v>
       </c>
       <c r="F5" s="1">
-        <v>6.998777389526367E-06</v>
+        <v>9.998321533203125E-06</v>
       </c>
       <c r="G5" s="1">
-        <v>4.997730255126953E-06</v>
+        <v>5.998849868774414E-06</v>
       </c>
       <c r="H5" s="1">
-        <v>8.998394012451171E-06</v>
+        <v>1.199865341186523E-05</v>
       </c>
       <c r="I5" s="1">
-        <v>4.997491836547851E-06</v>
+        <v>6.960391998291015E-06</v>
       </c>
       <c r="J5" s="1">
+        <v>9.99903678894043E-06</v>
+      </c>
+      <c r="K5" s="1">
+        <v>8.999109268188476E-06</v>
+      </c>
+      <c r="L5" s="1">
+        <v>7.000446319580078E-06</v>
+      </c>
+      <c r="M5" s="1">
         <v>8.998870849609375E-06</v>
       </c>
-      <c r="K5" s="1">
-        <v>6.000280380249024E-06</v>
-      </c>
-      <c r="L5" s="1">
-        <v>8.062362670898438E-06</v>
-      </c>
-      <c r="M5" s="1">
-        <v>5.064964294433594E-06</v>
-      </c>
       <c r="N5" s="1">
-        <v>1.006054878234863E-05</v>
+        <v>1.199817657470703E-05</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -609,37 +615,37 @@
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>0.0002324326038360596</v>
+        <v>0.0002270002365112305</v>
       </c>
       <c r="C6" s="1">
-        <v>6.508421897888184E-05</v>
+        <v>6.599831581115723E-05</v>
       </c>
       <c r="D6" s="1">
-        <v>2.309226989746094E-05</v>
+        <v>2.399802207946777E-05</v>
       </c>
       <c r="E6" s="1">
-        <v>2.299714088439941E-05</v>
+        <v>2.399849891662598E-05</v>
       </c>
       <c r="F6" s="1">
-        <v>4.412102699279785E-05</v>
+        <v>4.199910163879395E-05</v>
       </c>
       <c r="G6" s="1">
-        <v>1.105046272277832E-05</v>
+        <v>1.199746131896973E-05</v>
       </c>
       <c r="I6" s="1">
-        <v>1.600003242492676E-05</v>
+        <v>1.399946212768555E-05</v>
       </c>
       <c r="J6" s="1">
-        <v>8.412790298461914E-05</v>
+        <v>7.899904251098633E-05</v>
       </c>
       <c r="K6" s="1">
-        <v>2.304697036743164E-05</v>
+        <v>2.373290061950684E-05</v>
       </c>
       <c r="L6" s="1">
-        <v>4.418277740478516E-05</v>
+        <v>4.299688339233399E-05</v>
       </c>
       <c r="M6" s="1">
-        <v>9.998559951782226E-06</v>
+        <v>1.199746131896973E-05</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -647,22 +653,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>0.000363619327545166</v>
+        <v>0.0003529999256134033</v>
       </c>
       <c r="C7" s="1">
-        <v>9.918570518493652E-05</v>
+        <v>9.599947929382324E-05</v>
       </c>
       <c r="D7" s="1">
-        <v>2.699708938598633E-05</v>
+        <v>2.900004386901856E-05</v>
       </c>
       <c r="E7" s="1">
-        <v>2.005457878112793E-05</v>
+        <v>1.899981498718262E-05</v>
       </c>
       <c r="I7" s="1">
-        <v>1.299738883972168E-05</v>
+        <v>1.599884033203125E-05</v>
       </c>
       <c r="K7" s="1">
-        <v>2.00808048248291E-05</v>
+        <v>1.899862289428711E-05</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -670,34 +676,34 @@
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>0.0006912803649902344</v>
+        <v>0.0006719994544982911</v>
       </c>
       <c r="C8" s="1">
-        <v>0.0001859536170959473</v>
+        <v>0.000180999755859375</v>
       </c>
       <c r="D8" s="1">
-        <v>5.213665962219238E-05</v>
+        <v>5.199980735778809E-05</v>
       </c>
       <c r="E8" s="1">
-        <v>3.506159782409668E-05</v>
+        <v>3.599834442138672E-05</v>
       </c>
       <c r="F8" s="1">
-        <v>6.413960456848145E-05</v>
+        <v>6.299638748168945E-05</v>
       </c>
       <c r="H8" s="1">
-        <v>0.0001166620254516602</v>
+        <v>0.0001149985790252686</v>
       </c>
       <c r="J8" s="1">
-        <v>0.0001121394634246826</v>
+        <v>0.0001099989414215088</v>
       </c>
       <c r="K8" s="1">
-        <v>3.611278533935547E-05</v>
+        <v>3.499960899353028E-05</v>
       </c>
       <c r="L8" s="1">
-        <v>6.517219543457031E-05</v>
+        <v>6.199955940246582E-05</v>
       </c>
       <c r="N8" s="1">
-        <v>0.0001302080154418945</v>
+        <v>0.0001249983310699463</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,28 +711,28 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>0.001581261157989502</v>
+        <v>0.001528849363327026</v>
       </c>
       <c r="C9" s="1">
-        <v>0.0004316504001617432</v>
+        <v>0.0004129993915557861</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0001366617679595947</v>
+        <v>0.0001329996585845947</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0001251041889190674</v>
+        <v>0.0001219992637634277</v>
       </c>
       <c r="G9" s="1">
-        <v>4.404997825622558E-05</v>
+        <v>4.399991035461426E-05</v>
       </c>
       <c r="I9" s="1">
-        <v>6.816577911376953E-05</v>
+        <v>6.699872016906738E-05</v>
       </c>
       <c r="K9" s="1">
-        <v>0.0001293036937713623</v>
+        <v>0.0001229996681213379</v>
       </c>
       <c r="M9" s="1">
-        <v>4.504990577697754E-05</v>
+        <v>4.399895668029785E-05</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -734,34 +740,34 @@
         <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>0.006454645156860351</v>
+        <v>0.006195011854171753</v>
       </c>
       <c r="C10" s="1">
-        <v>0.001731733083724976</v>
+        <v>0.001683024406433105</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0004881949424743652</v>
+        <v>0.0004759962558746338</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0002927088737487793</v>
+        <v>0.0002890000343322754</v>
       </c>
       <c r="F10" s="1">
-        <v>0.000530254602432251</v>
+        <v>0.0005239999294281006</v>
       </c>
       <c r="H10" s="1">
-        <v>0.001034872055053711</v>
+        <v>0.0009849977493286133</v>
       </c>
       <c r="J10" s="1">
-        <v>0.0009702491760253906</v>
+        <v>0.0009279997348785401</v>
       </c>
       <c r="K10" s="1">
-        <v>0.000287682294845581</v>
+        <v>0.0002749996185302734</v>
       </c>
       <c r="L10" s="1">
-        <v>0.0005130136013031006</v>
+        <v>0.0004969995021820068</v>
       </c>
       <c r="N10" s="1">
-        <v>0.00112573504447937</v>
+        <v>0.001085735559463501</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -769,31 +775,31 @@
         <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>0.03768718647956848</v>
+        <v>0.03642201685905457</v>
       </c>
       <c r="C11" s="1">
-        <v>0.009725127458572388</v>
+        <v>0.009512564182281495</v>
       </c>
       <c r="D11" s="1">
-        <v>0.002757521629333496</v>
+        <v>0.002737011671066284</v>
       </c>
       <c r="E11" s="1">
-        <v>0.001939857721328735</v>
+        <v>0.001931560277938843</v>
       </c>
       <c r="F11" s="1">
-        <v>0.003648125886917114</v>
+        <v>0.003551517963409424</v>
       </c>
       <c r="G11" s="1">
-        <v>0.001014078378677368</v>
+        <v>0.0009803864955902099</v>
       </c>
       <c r="I11" s="1">
-        <v>0.001157230138778686</v>
+        <v>0.0011130051612854</v>
       </c>
       <c r="K11" s="1">
-        <v>0.001896563768386841</v>
+        <v>0.001819506645202637</v>
       </c>
       <c r="L11" s="1">
-        <v>0.003680063724517822</v>
+        <v>0.003518502473831177</v>
       </c>
     </row>
   </sheetData>
@@ -831,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>4.997730255126953E-06</v>
+        <v>5.999088287353515E-06</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -845,7 +851,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>4.997491836547851E-06</v>
+        <v>5.998849868774414E-06</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
@@ -859,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>9.998559951782226E-06</v>
+        <v>1.199746131896973E-05</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -873,10 +879,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>1.299738883972168E-05</v>
+        <v>1.599884033203125E-05</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -887,10 +893,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>3.506159782409668E-05</v>
+        <v>3.499960899353028E-05</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -901,10 +907,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>4.404997825622558E-05</v>
+        <v>4.399895668029785E-05</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -915,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>0.000287682294845581</v>
+        <v>0.0002749996185302734</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -929,10 +935,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>0.001014078378677368</v>
+        <v>0.0009803864955902099</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
